--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3D4CAE-B336-41EE-A6F1-0315384CC093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -316,11 +317,6 @@
     <t>右靠左補空，大寫英數字，不得填寫中文(扣款人ID+郵局存款別(POSCDE)+戶號)預計補2位帳號碼</t>
   </si>
   <si>
-    <t>" "-成功
-else-參照需求書</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MediaDate Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1789,33 +1785,6 @@
   </si>
   <si>
     <t>X(45)</t>
-  </si>
-  <si>
-    <t>CdCode:RepayType
-0.債協暫收款
-1.期款
-2.部分償還
-3.結案
-4.帳管費
-5.火險費
-6.契變手續費
-7.法務費
-9.其他
-11.債協匯入款(虛擬帳號為9510500NNNNNNN)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:PostDepCode
-P：存簿G：劃撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>846(期款)
-0001(帳管及契變手續)
-0002(期款)
-53N(火險)
-空白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>846提出為一個檔案，提回為0001/0002兩個檔案 : PRSBCP4_8460001扣回.txt / PRSBCP4_8460002扣回.txt
@@ -1993,11 +1962,44 @@
     <t>提回會計日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>CdCode.RepayType
+0:債協暫收款
+1:期款
+2:部分償還
+3:結案
+4:帳管費
+5:火險費
+6:契變手續費
+7:法務費
+9:其他
+11:債協匯入款(虛擬帳號為9510500NNNNNNN)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>單格空白:成功
+其他:參照需求書</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.PostDepCode
+P:存簿
+G:劃撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>846:期款
+0001:帳管及契變手續
+0002:期款
+53N:火險
+空白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -2458,6 +2460,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2490,14 +2495,11 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2588,6 +2590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2623,6 +2642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2798,11 +2834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2817,10 +2853,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
@@ -2832,8 +2868,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
@@ -2845,10 +2881,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="12" t="s">
         <v>43</v>
       </c>
@@ -2860,10 +2896,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -2871,10 +2907,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="12" t="s">
         <v>50</v>
       </c>
@@ -2884,10 +2920,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -2895,10 +2931,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -3017,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3028,7 +3064,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>36</v>
@@ -3055,10 +3091,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="32.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48.6">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -3075,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3115,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3162,7 +3198,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>37</v>
@@ -3202,7 +3238,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>54</v>
@@ -3210,8 +3246,8 @@
       <c r="E23" s="19">
         <v>8</v>
       </c>
-      <c r="G23" s="62" t="s">
-        <v>202</v>
+      <c r="G23" s="51" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3333,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3373,10 +3409,10 @@
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3398,7 +3434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -3419,43 +3455,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48.6">
-      <c r="A1" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="A1" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="27"/>
       <c r="I1" s="28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="A2" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="A3" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
@@ -3472,28 +3508,28 @@
     </row>
     <row r="5" spans="1:9" ht="64.2">
       <c r="A5" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="I5" s="27"/>
     </row>
@@ -3502,22 +3538,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="35">
         <v>1</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>98</v>
-      </c>
       <c r="G6" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="27"/>
@@ -3527,22 +3563,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="35">
         <v>2</v>
       </c>
       <c r="D7" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="F7" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>102</v>
-      </c>
       <c r="G7" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="27"/>
@@ -3555,22 +3591,22 @@
         <v>31</v>
       </c>
       <c r="C8" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>105</v>
       </c>
       <c r="F8" s="38">
         <v>846</v>
       </c>
       <c r="G8" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>107</v>
       </c>
       <c r="I8" s="27"/>
     </row>
@@ -3582,19 +3618,19 @@
         <v>32</v>
       </c>
       <c r="C9" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>111</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>112</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="27"/>
@@ -3604,22 +3640,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>117</v>
-      </c>
       <c r="G10" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="27"/>
@@ -3629,22 +3665,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="35">
         <v>17</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>120</v>
-      </c>
       <c r="G11" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="27"/>
@@ -3654,66 +3690,66 @@
         <v>7</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>124</v>
-      </c>
       <c r="G12" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="32.4">
-      <c r="A13" s="60">
+      <c r="A13" s="61">
         <v>8</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="E13" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="F13" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="G13" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="56"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="48.6">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="48.6">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="37" t="s">
-        <v>129</v>
-      </c>
       <c r="F14" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="56"/>
+        <v>127</v>
+      </c>
+      <c r="H14" s="57"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9">
@@ -3721,22 +3757,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>132</v>
-      </c>
       <c r="E15" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="27"/>
@@ -3746,22 +3782,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="F16" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>137</v>
-      </c>
       <c r="G16" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="27"/>
@@ -3771,25 +3807,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="E17" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>141</v>
-      </c>
       <c r="G17" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I17" s="27"/>
     </row>
@@ -3798,22 +3834,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="35">
         <v>75</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="G18" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>145</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="27"/>
@@ -3823,22 +3859,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="35">
         <v>76</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="27"/>
@@ -3848,22 +3884,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="35">
         <v>77</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="27"/>
@@ -3873,22 +3909,22 @@
         <v>15</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="35">
         <v>78</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="G21" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="27"/>
@@ -3898,25 +3934,25 @@
         <v>16</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="D22" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="F22" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>124</v>
-      </c>
       <c r="G22" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I22" s="27"/>
     </row>
@@ -3925,22 +3961,22 @@
         <v>17</v>
       </c>
       <c r="B23" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="D23" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="E23" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="F23" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>159</v>
-      </c>
       <c r="G23" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="27"/>
@@ -3950,22 +3986,22 @@
         <v>18</v>
       </c>
       <c r="B24" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="D24" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>162</v>
-      </c>
       <c r="E24" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="27"/>
@@ -3975,22 +4011,22 @@
         <v>19</v>
       </c>
       <c r="B25" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="D25" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="37" t="s">
+      <c r="F25" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>166</v>
-      </c>
       <c r="G25" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="27"/>
@@ -4000,22 +4036,22 @@
         <v>20</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="27"/>
@@ -4066,7 +4102,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -4079,28 +4115,28 @@
     </row>
     <row r="32" spans="1:9" ht="64.2">
       <c r="A32" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="E32" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="F32" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="G32" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="H32" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="I32" s="27"/>
     </row>
@@ -4109,16 +4145,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="43">
         <v>1</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="43">
         <v>2</v>
@@ -4140,16 +4176,16 @@
         <v>2</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" s="45"/>
       <c r="I34" s="27"/>
@@ -4162,19 +4198,19 @@
         <v>31</v>
       </c>
       <c r="C35" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="43" t="s">
-        <v>104</v>
-      </c>
       <c r="E35" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="43">
         <v>846</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="27"/>
@@ -4184,22 +4220,22 @@
         <v>4</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="43" t="s">
-        <v>109</v>
-      </c>
       <c r="E36" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="27"/>
@@ -4209,22 +4245,22 @@
         <v>5</v>
       </c>
       <c r="B37" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="D37" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>115</v>
-      </c>
       <c r="E37" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="27"/>
@@ -4234,22 +4270,22 @@
         <v>6</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" s="27"/>
@@ -4259,22 +4295,22 @@
         <v>7</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="D39" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="44" t="s">
+      <c r="F39" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="F39" s="43" t="s">
-        <v>178</v>
-      </c>
       <c r="G39" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="27"/>
@@ -4284,22 +4320,22 @@
         <v>8</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="D40" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="E40" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="F40" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="43" t="s">
-        <v>183</v>
-      </c>
       <c r="G40" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="45"/>
       <c r="I40" s="27"/>
@@ -4309,22 +4345,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="43" t="s">
-        <v>185</v>
-      </c>
       <c r="E41" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="27"/>
@@ -4334,16 +4370,16 @@
         <v>10</v>
       </c>
       <c r="B42" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="D42" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>187</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>188</v>
       </c>
       <c r="F42" s="43">
         <v>0</v>
@@ -4361,16 +4397,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="43" t="s">
-        <v>190</v>
-      </c>
       <c r="D43" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F43" s="43">
         <v>0</v>
@@ -4388,22 +4424,22 @@
         <v>12</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="43" t="s">
-        <v>192</v>
-      </c>
       <c r="E44" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H44" s="45"/>
       <c r="I44" s="27"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3D4CAE-B336-41EE-A6F1-0315384CC093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -311,9 +310,6 @@
     <t>KeyID</t>
   </si>
   <si>
-    <t>84653N</t>
-  </si>
-  <si>
     <t>右靠左補空，大寫英數字，不得填寫中文(扣款人ID+郵局存款別(POSCDE)+戶號)預計補2位帳號碼</t>
   </si>
   <si>
@@ -1929,12 +1925,54 @@
       <t>帳號碼可能為空白</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提回會計日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RepayType
+0:債協暫收款
+1:期款
+2:部分償還
+3:結案
+4:帳管費
+5:火險費
+6:契變手續費
+7:法務費
+9:其他
+11:債協匯入款(虛擬帳號為9510500NNNNNNN)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.PostDepCode
+P:存簿
+G:劃撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>846:期款
+0001:帳管及契變手續
+0002:期款
+53N:火險
+空白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>846:期款
+53N:火險</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">回應檔失敗原因參考 : 
 ref. CdCode ProcCode 處理說明
  ACH  : 002 + ReturnCode(2)
  郵局 : 003 + ReturnCode(2)
+01 存款不足
 03 已終止代繳  
 06 凍結警示戶  
 07 支票專戶    
@@ -1955,51 +1993,17 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>會計日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>提回會計日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.RepayType
-0:債協暫收款
-1:期款
-2:部分償還
-3:結案
-4:帳管費
-5:火險費
-6:契變手續費
-7:法務費
-9:其他
-11:債協匯入款(虛擬帳號為9510500NNNNNNN)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>單格空白:成功
-其他:參照需求書</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.PostDepCode
-P:存簿
-G:劃撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>846:期款
-0001:帳管及契變手續
-0002:期款
-53N:火險
-空白</t>
+其他: CdCode ProcCode處理說明
+ ACH  : 002 + ReturnCode(2)
+ 郵局 : 003 + ReturnCode(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -2499,7 +2503,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2590,23 +2594,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2642,23 +2629,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2834,11 +2804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3053,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3064,7 +3034,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>36</v>
@@ -3074,7 +3044,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" ht="32.4">
+    <row r="15" spans="1:7" ht="64.8">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -3091,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6">
@@ -3111,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32.4">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -3131,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="81">
@@ -3151,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3198,7 +3168,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>37</v>
@@ -3207,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3238,7 +3208,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>54</v>
@@ -3247,7 +3217,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3369,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3409,10 +3379,10 @@
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3434,11 +3404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3456,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="48.6">
       <c r="A1" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -3466,12 +3436,12 @@
       <c r="G1" s="59"/>
       <c r="H1" s="27"/>
       <c r="I1" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -3484,7 +3454,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -3508,28 +3478,28 @@
     </row>
     <row r="5" spans="1:9" ht="64.2">
       <c r="A5" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>92</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>93</v>
       </c>
       <c r="I5" s="27"/>
     </row>
@@ -3538,22 +3508,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="35">
         <v>1</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>97</v>
-      </c>
       <c r="G6" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="27"/>
@@ -3563,22 +3533,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="35">
         <v>2</v>
       </c>
       <c r="D7" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="F7" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>101</v>
-      </c>
       <c r="G7" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="27"/>
@@ -3591,22 +3561,22 @@
         <v>31</v>
       </c>
       <c r="C8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>103</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>104</v>
       </c>
       <c r="F8" s="38">
         <v>846</v>
       </c>
       <c r="G8" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>105</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>106</v>
       </c>
       <c r="I8" s="27"/>
     </row>
@@ -3618,19 +3588,19 @@
         <v>32</v>
       </c>
       <c r="C9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>111</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="27"/>
@@ -3640,22 +3610,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>116</v>
-      </c>
       <c r="G10" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="27"/>
@@ -3665,22 +3635,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="35">
         <v>17</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>119</v>
-      </c>
       <c r="G11" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="27"/>
@@ -3690,22 +3660,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>123</v>
-      </c>
       <c r="G12" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="27"/>
@@ -3718,19 +3688,19 @@
         <v>34</v>
       </c>
       <c r="C13" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="E13" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="F13" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>127</v>
-      </c>
       <c r="G13" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="56"/>
       <c r="I13" s="27"/>
@@ -3741,13 +3711,13 @@
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
       <c r="E14" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="27"/>
@@ -3757,22 +3727,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>131</v>
-      </c>
       <c r="E15" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="27"/>
@@ -3782,22 +3752,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="F16" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>136</v>
-      </c>
       <c r="G16" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="27"/>
@@ -3807,25 +3777,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="E17" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="G17" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>195</v>
       </c>
       <c r="I17" s="27"/>
     </row>
@@ -3834,22 +3804,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="35">
         <v>75</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="G18" s="37" t="s">
         <v>143</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>144</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="27"/>
@@ -3859,22 +3829,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="35">
         <v>76</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="27"/>
@@ -3884,22 +3854,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="35">
         <v>77</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="27"/>
@@ -3909,50 +3879,50 @@
         <v>15</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="35">
         <v>78</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>150</v>
-      </c>
       <c r="G21" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" ht="303.60000000000002">
+    <row r="22" spans="1:9" ht="317.39999999999998">
       <c r="A22" s="35">
         <v>16</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="D22" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="F22" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>123</v>
-      </c>
       <c r="G22" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I22" s="27"/>
     </row>
@@ -3961,22 +3931,22 @@
         <v>17</v>
       </c>
       <c r="B23" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="D23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="E23" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="F23" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>158</v>
-      </c>
       <c r="G23" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="27"/>
@@ -3986,22 +3956,22 @@
         <v>18</v>
       </c>
       <c r="B24" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="D24" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>161</v>
-      </c>
       <c r="E24" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="27"/>
@@ -4011,22 +3981,22 @@
         <v>19</v>
       </c>
       <c r="B25" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="D25" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="37" t="s">
+      <c r="F25" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>165</v>
-      </c>
       <c r="G25" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="27"/>
@@ -4036,22 +4006,22 @@
         <v>20</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="27"/>
@@ -4102,7 +4072,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -4115,28 +4085,28 @@
     </row>
     <row r="32" spans="1:9" ht="64.2">
       <c r="A32" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="E32" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="F32" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="G32" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="H32" s="34" t="s">
         <v>92</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>93</v>
       </c>
       <c r="I32" s="27"/>
     </row>
@@ -4145,16 +4115,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="43">
         <v>1</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" s="43">
         <v>2</v>
@@ -4176,16 +4146,16 @@
         <v>2</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="45"/>
       <c r="I34" s="27"/>
@@ -4198,19 +4168,19 @@
         <v>31</v>
       </c>
       <c r="C35" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="43" t="s">
-        <v>103</v>
-      </c>
       <c r="E35" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F35" s="43">
         <v>846</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="27"/>
@@ -4220,22 +4190,22 @@
         <v>4</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="43" t="s">
-        <v>108</v>
-      </c>
       <c r="E36" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="27"/>
@@ -4245,22 +4215,22 @@
         <v>5</v>
       </c>
       <c r="B37" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="D37" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>114</v>
-      </c>
       <c r="E37" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="27"/>
@@ -4270,22 +4240,22 @@
         <v>6</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" s="27"/>
@@ -4295,22 +4265,22 @@
         <v>7</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="D39" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="44" t="s">
+      <c r="F39" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="43" t="s">
-        <v>177</v>
-      </c>
       <c r="G39" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="27"/>
@@ -4320,22 +4290,22 @@
         <v>8</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="D40" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="E40" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="F40" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="43" t="s">
-        <v>182</v>
-      </c>
       <c r="G40" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H40" s="45"/>
       <c r="I40" s="27"/>
@@ -4345,22 +4315,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="43" t="s">
-        <v>184</v>
-      </c>
       <c r="E41" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="27"/>
@@ -4370,16 +4340,16 @@
         <v>10</v>
       </c>
       <c r="B42" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="D42" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>186</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>187</v>
       </c>
       <c r="F42" s="43">
         <v>0</v>
@@ -4397,16 +4367,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="43" t="s">
-        <v>189</v>
-      </c>
       <c r="D43" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F43" s="43">
         <v>0</v>
@@ -4424,22 +4394,22 @@
         <v>12</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="43" t="s">
-        <v>191</v>
-      </c>
       <c r="E44" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H44" s="45"/>
       <c r="I44" s="27"/>
